--- a/case.xlsx
+++ b/case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="102">
   <si>
     <t>id</t>
   </si>
@@ -36,6 +36,15 @@
     <t>interval_ms</t>
   </si>
   <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>err</t>
+  </si>
+  <si>
     <t>can_tc_1</t>
   </si>
   <si>
@@ -43,6 +52,9 @@
   </si>
   <si>
     <t>[0, 1, 2, 3, 4, 5, 6, 7]</t>
+  </si>
+  <si>
+    <t>[cat /oemdata/configs/7B120-1.cfg | grep ICCID,exit]</t>
   </si>
   <si>
     <t/>
@@ -945,10 +957,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1277,17 +1289,18 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.4537037037037" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.7777777777778" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41.1111111111111" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7777777777778" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.1111111111111" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.2222222222222" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3333333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="41.6666666666667" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1310,18 +1323,24 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1330,21 +1349,24 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="5">
-        <v>500</v>
+        <v>11</v>
+      </c>
+      <c r="F2" s="4">
+        <v>500</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -1353,44 +1375,50 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="5">
-        <v>500</v>
+        <v>11</v>
+      </c>
+      <c r="F3" s="4">
+        <v>500</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4">
+        <v>500</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="5">
-        <v>500</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1399,21 +1427,24 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="5">
-        <v>500</v>
+        <v>11</v>
+      </c>
+      <c r="F5" s="4">
+        <v>500</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -1422,21 +1453,24 @@
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="5">
-        <v>500</v>
+        <v>11</v>
+      </c>
+      <c r="F6" s="4">
+        <v>500</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -1445,21 +1479,24 @@
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="5">
-        <v>500</v>
+        <v>11</v>
+      </c>
+      <c r="F7" s="4">
+        <v>500</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -1468,21 +1505,24 @@
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="5">
-        <v>500</v>
+        <v>11</v>
+      </c>
+      <c r="F8" s="4">
+        <v>500</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -1491,21 +1531,24 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="5">
-        <v>500</v>
+        <v>11</v>
+      </c>
+      <c r="F9" s="4">
+        <v>500</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -1514,21 +1557,24 @@
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="5">
-        <v>500</v>
+        <v>11</v>
+      </c>
+      <c r="F10" s="4">
+        <v>500</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -1537,21 +1583,24 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="5">
-        <v>500</v>
+        <v>11</v>
+      </c>
+      <c r="F11" s="4">
+        <v>500</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -1560,21 +1609,24 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="5">
-        <v>500</v>
+        <v>11</v>
+      </c>
+      <c r="F12" s="4">
+        <v>500</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -1583,21 +1635,24 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="5">
-        <v>500</v>
+        <v>11</v>
+      </c>
+      <c r="F13" s="4">
+        <v>500</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -1606,21 +1661,24 @@
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="5">
-        <v>500</v>
+        <v>11</v>
+      </c>
+      <c r="F14" s="4">
+        <v>500</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -1629,21 +1687,24 @@
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="5">
-        <v>500</v>
+        <v>11</v>
+      </c>
+      <c r="F15" s="4">
+        <v>500</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -1652,21 +1713,24 @@
         <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="5">
-        <v>500</v>
+        <v>11</v>
+      </c>
+      <c r="F16" s="4">
+        <v>500</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1675,21 +1739,24 @@
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="5">
-        <v>500</v>
+        <v>11</v>
+      </c>
+      <c r="F17" s="4">
+        <v>500</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -1698,21 +1765,24 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="5">
-        <v>500</v>
+        <v>11</v>
+      </c>
+      <c r="F18" s="4">
+        <v>500</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -1721,18 +1791,21 @@
         <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F19" s="4">
+        <v>500</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -1741,18 +1814,21 @@
         <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F20" s="4">
+        <v>500</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -1761,18 +1837,21 @@
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F21" s="4">
+        <v>500</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -1781,18 +1860,21 @@
         <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F22" s="4">
+        <v>500</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -1801,18 +1883,21 @@
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F23" s="4">
+        <v>500</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -1821,18 +1906,21 @@
         <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="5">
-        <v>500</v>
+        <v>11</v>
+      </c>
+      <c r="F24" s="4">
+        <v>500</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -1841,21 +1929,24 @@
         <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="5">
-        <v>500</v>
+        <v>11</v>
+      </c>
+      <c r="F25" s="4">
+        <v>500</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -1864,18 +1955,21 @@
         <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F26" s="4">
+        <v>500</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
@@ -1884,18 +1978,21 @@
         <v>0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F27" s="4">
+        <v>500</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
@@ -1904,18 +2001,21 @@
         <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F28" s="4">
+        <v>500</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -1924,18 +2024,21 @@
         <v>0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F29" s="4">
+        <v>500</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
@@ -1944,18 +2047,21 @@
         <v>0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F30" s="4">
+        <v>500</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -1964,18 +2070,21 @@
         <v>0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F31" s="4">
+        <v>500</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -1984,18 +2093,21 @@
         <v>0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F32" s="4">
+        <v>500</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
@@ -2004,18 +2116,21 @@
         <v>0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F33" s="4">
+        <v>500</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
@@ -2024,18 +2139,21 @@
         <v>0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F34" s="4">
+        <v>500</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
@@ -2044,18 +2162,21 @@
         <v>0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F35" s="4">
+        <v>500</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
@@ -2064,18 +2185,21 @@
         <v>0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F36" s="4">
+        <v>500</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
@@ -2084,18 +2208,21 @@
         <v>0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F37" s="4">
+        <v>500</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
@@ -2104,18 +2231,21 @@
         <v>0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F38" s="4">
+        <v>500</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
@@ -2124,18 +2254,21 @@
         <v>0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F39" s="4">
+        <v>500</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
@@ -2144,18 +2277,21 @@
         <v>0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F40" s="4">
+        <v>500</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
@@ -2164,18 +2300,21 @@
         <v>0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F41" s="4">
+        <v>500</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
@@ -2184,18 +2323,21 @@
         <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F42" s="4">
+        <v>500</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
@@ -2204,18 +2346,21 @@
         <v>0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F43" s="4">
+        <v>500</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
@@ -2224,18 +2369,21 @@
         <v>0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F44" s="4">
+        <v>500</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -2244,18 +2392,21 @@
         <v>0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F45" s="4">
+        <v>500</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
@@ -2264,10 +2415,13 @@
         <v>0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="5">
-        <v>500</v>
+        <v>11</v>
+      </c>
+      <c r="F46" s="4">
+        <v>500</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
